--- a/output/StructureDefinition-NatlDirAttest-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$114</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4008" uniqueCount="571">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T12:56:11-05:00</t>
+    <t>2022-04-19T13:14:50-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -605,27 +605,152 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>qualification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/qualification}
+    <t>rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/rating}
 </t>
   </si>
   <si>
-    <t>Qualification</t>
-  </si>
-  <si>
-    <t>An extension to add qualifications for an organization (e.g. accreditation) or practitionerRole (e.g. registered to prescribe controlled substances).</t>
+    <t>Rating</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>qualification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification}
+</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>An extension to add qualifications for an organization (e.g. accreditation) or practitionerRole (e.g. registered to prescribe controlled substances).</t>
+  </si>
+  <si>
+    <t>Organization.extension.id</t>
+  </si>
+  <si>
+    <t>Organization.extension.extension</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>Organization.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Organization.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Organization.extension.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Organization.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/SpecialtyAndDegreeLicenseCertificateVS</t>
+  </si>
+  <si>
+    <t>issuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>valueCode</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/QualificationStatusVS</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>whereValid</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
+  </si>
+  <si>
+    <t>Organization.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification</t>
+  </si>
+  <si>
+    <t>Organization.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
     <t>org-description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/org-description}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/org-description}
 </t>
   </si>
   <si>
@@ -654,10 +779,6 @@
     <t>Organization.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
     <t>Identifies this organization  across multiple systems</t>
   </si>
   <si>
@@ -708,9 +829,6 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
@@ -726,10 +844,6 @@
     <t>Organization.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -812,10 +926,6 @@
   </si>
   <si>
     <t>Organization.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>Time period when id is/was valid for use</t>
@@ -941,7 +1051,7 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/OrgTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/OrgTypeVS</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -1038,7 +1148,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1051,14 +1161,14 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
     <t>Via Intermediary</t>
   </si>
   <si>
-    <t>A reference to an alternative point of contact (NatlDir-PractitionerRole, NatlDir-Organization, NatlDir-OrganizationAffiliation, or NatlDir-Location) for this organization</t>
+    <t>A reference to an alternative point of contact (NatlDirEndpointQry-PractitionerRole, NatlDirEndpointQry-Organization, NatlDirEndpointQry-OrganizationAffiliation, or NatlDirEndpointQry-Location) for this organization</t>
   </si>
   <si>
     <t>Organization.telecom.system</t>
@@ -1422,9 +1532,6 @@
   </si>
   <si>
     <t>Two letter USPS alphabetic codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -1516,10 +1623,6 @@
   </si>
   <si>
     <t>Organization.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
-</t>
   </si>
   <si>
     <t>The organization of which this organization forms a part</t>
@@ -2012,7 +2115,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM78"/>
+  <dimension ref="A1:AM114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2021,7 +2124,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.3046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="25.140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2045,7 +2148,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.53515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.5" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -3947,7 +4050,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>185</v>
       </c>
@@ -3965,7 +4068,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3980,7 +4083,7 @@
         <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4040,7 +4143,7 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>113</v>
@@ -4058,12 +4161,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>185</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>76</v>
@@ -4073,10 +4176,10 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -4085,13 +4188,13 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4151,7 +4254,7 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>113</v>
@@ -4171,43 +4274,39 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>76</v>
       </c>
@@ -4255,25 +4354,25 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4284,7 +4383,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4292,35 +4391,31 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>76</v>
       </c>
@@ -4356,9 +4451,11 @@
         <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>76</v>
       </c>
@@ -4366,7 +4463,7 @@
         <v>111</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4375,29 +4472,31 @@
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4406,10 +4505,10 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -4418,13 +4517,13 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4475,25 +4574,25 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -4504,18 +4603,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>76</v>
@@ -4527,17 +4626,15 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4574,31 +4671,31 @@
         <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
@@ -4615,7 +4712,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4626,32 +4723,28 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4675,49 +4768,49 @@
         <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4726,9 +4819,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4736,41 +4829,39 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>76</v>
@@ -4788,13 +4879,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4812,10 +4903,10 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>85</v>
@@ -4824,13 +4915,13 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4839,9 +4930,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4849,35 +4940,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4889,7 +4976,7 @@
         <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>76</v>
@@ -4925,7 +5012,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4940,13 +5027,13 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4954,15 +5041,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>85</v>
@@ -4974,20 +5063,18 @@
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -5000,7 +5087,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -5036,28 +5123,28 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>251</v>
+        <v>112</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -5065,7 +5152,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5085,16 +5172,16 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>256</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>99</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5145,7 +5232,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>259</v>
+        <v>101</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5157,16 +5244,16 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>261</v>
+        <v>102</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -5174,7 +5261,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5185,7 +5272,7 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>76</v>
@@ -5194,20 +5281,18 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>264</v>
+        <v>105</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -5244,93 +5329,91 @@
         <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>268</v>
+        <v>112</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="B30" t="s" s="2">
-        <v>272</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="L30" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>208</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>76</v>
@@ -5369,46 +5452,44 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>85</v>
@@ -5420,21 +5501,19 @@
         <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>208</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5443,7 +5522,7 @@
         <v>76</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>76</v>
@@ -5458,13 +5537,11 @@
         <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>76</v>
@@ -5482,44 +5559,46 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>85</v>
@@ -5528,37 +5607,31 @@
         <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P32" t="s" s="2">
-        <v>284</v>
-      </c>
+      <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>76</v>
@@ -5597,36 +5670,36 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>201</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5634,35 +5707,31 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>227</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>291</v>
+        <v>99</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5686,11 +5755,13 @@
         <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>76</v>
@@ -5708,36 +5779,36 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>290</v>
+        <v>101</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>297</v>
+        <v>102</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>202</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5745,35 +5816,31 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5809,40 +5876,40 @@
         <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>299</v>
+        <v>112</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5850,7 +5917,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>203</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5858,10 +5925,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>76</v>
@@ -5873,26 +5940,24 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>205</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>76</v>
@@ -5934,25 +5999,25 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>305</v>
+        <v>184</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5961,9 +6026,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5971,13 +6036,13 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5986,20 +6051,16 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>314</v>
+        <v>210</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>76</v>
       </c>
@@ -6047,50 +6108,52 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>319</v>
+        <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="C37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -6099,13 +6162,13 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6156,25 +6219,25 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -6185,18 +6248,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>76</v>
@@ -6208,17 +6271,15 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>76</v>
@@ -6255,31 +6316,31 @@
         <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>76</v>
@@ -6294,13 +6355,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6309,10 +6368,10 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -6321,13 +6380,13 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>326</v>
+        <v>105</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>327</v>
+        <v>186</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>328</v>
+        <v>187</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6366,16 +6425,16 @@
         <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>112</v>
@@ -6405,25 +6464,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -6432,22 +6489,24 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>330</v>
+        <v>127</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>331</v>
+        <v>204</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>76</v>
@@ -6489,25 +6548,25 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6516,9 +6575,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>208</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6526,28 +6585,28 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>161</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>334</v>
+        <v>210</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>211</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6574,31 +6633,29 @@
         <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="AB41" s="2"/>
       <c r="AC41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>338</v>
+        <v>212</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6607,69 +6664,67 @@
         <v>85</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>341</v>
+        <v>184</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>344</v>
+        <v>210</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>76</v>
@@ -6687,13 +6742,11 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -6711,7 +6764,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>348</v>
+        <v>212</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6726,23 +6779,25 @@
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>349</v>
+        <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>350</v>
+        <v>184</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6754,29 +6809,25 @@
         <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>352</v>
+        <v>186</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6800,13 +6851,13 @@
         <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>76</v>
@@ -6824,36 +6875,36 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>358</v>
+        <v>112</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>201</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6867,26 +6918,24 @@
         <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>363</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>364</v>
+        <v>99</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6935,7 +6984,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>367</v>
+        <v>101</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6947,10 +6996,10 @@
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>102</v>
@@ -6964,7 +7013,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>202</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6975,7 +7024,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>76</v>
@@ -6984,16 +7033,16 @@
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>256</v>
+        <v>105</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>369</v>
+        <v>186</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>370</v>
+        <v>187</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7032,48 +7081,48 @@
         <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>371</v>
+        <v>112</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>203</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7084,10 +7133,10 @@
         <v>85</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -7096,26 +7145,24 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>374</v>
+        <v>127</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>375</v>
+        <v>204</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>376</v>
+        <v>205</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>76</v>
@@ -7157,28 +7204,28 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>373</v>
+        <v>207</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>379</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>380</v>
+        <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>381</v>
+        <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>382</v>
+        <v>184</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -7186,7 +7233,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>208</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7194,7 +7241,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>85</v>
@@ -7209,13 +7256,13 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7266,7 +7313,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7278,13 +7325,13 @@
         <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -7293,13 +7340,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C48" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7309,7 +7358,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -7321,14 +7370,12 @@
         <v>105</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -7365,16 +7412,16 @@
         <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>112</v>
@@ -7395,7 +7442,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7404,13 +7451,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7422,7 +7467,7 @@
         <v>85</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -7431,17 +7476,15 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>386</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>387</v>
+        <v>99</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>76</v>
@@ -7490,25 +7533,25 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7519,7 +7562,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>202</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7530,32 +7573,28 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>391</v>
+        <v>186</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7567,7 +7606,7 @@
         <v>76</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>395</v>
+        <v>76</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>76</v>
@@ -7579,60 +7618,60 @@
         <v>76</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>396</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>398</v>
+        <v>112</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>203</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7640,31 +7679,31 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>402</v>
+        <v>204</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>403</v>
+        <v>205</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>404</v>
+        <v>206</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7672,13 +7711,13 @@
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>76</v>
@@ -7690,13 +7729,13 @@
         <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>406</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>76</v>
@@ -7714,10 +7753,10 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>408</v>
+        <v>207</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>85</v>
@@ -7726,13 +7765,13 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>360</v>
+        <v>184</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7743,7 +7782,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>208</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7751,7 +7790,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>85</v>
@@ -7763,23 +7802,19 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>411</v>
+        <v>210</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7791,7 +7826,7 @@
         <v>76</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>415</v>
+        <v>76</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>76</v>
@@ -7803,13 +7838,11 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7827,7 +7860,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>416</v>
+        <v>212</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7842,10 +7875,10 @@
         <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>417</v>
+        <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>418</v>
+        <v>184</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7854,9 +7887,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>229</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7864,43 +7897,45 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>420</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>421</v>
+        <v>204</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>423</v>
+        <v>76</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>76</v>
@@ -7936,65 +7971,65 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>424</v>
+        <v>207</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>425</v>
+        <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>426</v>
+        <v>184</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>427</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>231</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>232</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>431</v>
+        <v>211</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8009,7 +8044,7 @@
         <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>432</v>
+        <v>76</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>76</v>
@@ -8045,7 +8080,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>433</v>
+        <v>212</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8060,13 +8095,13 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>434</v>
+        <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>435</v>
+        <v>184</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>436</v>
+        <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -8074,11 +8109,13 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="C55" t="s" s="2">
-        <v>438</v>
+        <v>76</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8094,20 +8131,18 @@
         <v>76</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>439</v>
+        <v>235</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -8120,7 +8155,7 @@
         <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>76</v>
@@ -8156,25 +8191,25 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>443</v>
+        <v>188</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>445</v>
+        <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -8183,41 +8218,45 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>446</v>
+        <v>237</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>447</v>
+        <v>104</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H56" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="I56" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>448</v>
+        <v>238</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
       </c>
@@ -8241,13 +8280,13 @@
         <v>76</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>76</v>
@@ -8265,47 +8304,47 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>452</v>
+        <v>241</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>453</v>
+        <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>454</v>
+        <v>184</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>455</v>
+        <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>456</v>
+        <v>242</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>457</v>
+        <v>76</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>86</v>
@@ -8317,16 +8356,20 @@
         <v>86</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>458</v>
+        <v>243</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8338,7 +8381,7 @@
         <v>76</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>460</v>
+        <v>76</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>76</v>
@@ -8362,48 +8405,46 @@
         <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="AB57" s="2"/>
       <c r="AC57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>461</v>
+        <v>242</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>462</v>
+        <v>249</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>463</v>
+        <v>250</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>464</v>
+        <v>102</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>465</v>
+        <v>252</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8417,26 +8458,24 @@
         <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>466</v>
+        <v>99</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -8485,7 +8524,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>469</v>
+        <v>101</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8497,16 +8536,16 @@
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>470</v>
+        <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>471</v>
+        <v>102</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>472</v>
+        <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8514,18 +8553,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>473</v>
+        <v>253</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>76</v>
@@ -8534,21 +8573,21 @@
         <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>256</v>
+        <v>105</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>474</v>
+        <v>106</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8560,7 +8599,7 @@
         <v>76</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>477</v>
+        <v>76</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>76</v>
@@ -8584,48 +8623,48 @@
         <v>76</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>478</v>
+        <v>112</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>479</v>
+        <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>372</v>
+        <v>102</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>480</v>
+        <v>254</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8639,26 +8678,28 @@
         <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H60" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>481</v>
+        <v>161</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>482</v>
+        <v>255</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="N60" t="s" s="2">
-        <v>484</v>
+        <v>258</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8683,13 +8724,13 @@
         <v>76</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>76</v>
@@ -8707,7 +8748,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>480</v>
+        <v>261</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8722,21 +8763,21 @@
         <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>286</v>
+        <v>184</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>485</v>
+        <v>262</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>486</v>
+        <v>263</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8747,31 +8788,31 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>487</v>
+        <v>214</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>488</v>
+        <v>264</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>489</v>
+        <v>265</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>490</v>
+        <v>266</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>491</v>
+        <v>267</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8796,13 +8837,13 @@
         <v>76</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>76</v>
@@ -8820,13 +8861,13 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>486</v>
+        <v>270</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
@@ -8835,10 +8876,10 @@
         <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>492</v>
+        <v>262</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8847,9 +8888,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>493</v>
+        <v>272</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8863,25 +8904,29 @@
         <v>85</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8893,7 +8938,7 @@
         <v>76</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>76</v>
@@ -8929,7 +8974,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>101</v>
+        <v>278</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8941,56 +8986,56 @@
         <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>102</v>
+        <v>280</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>494</v>
+        <v>282</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>106</v>
+        <v>283</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>107</v>
+        <v>284</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>108</v>
+        <v>285</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9004,7 +9049,7 @@
         <v>76</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>76</v>
@@ -9040,28 +9085,28 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>112</v>
+        <v>287</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>102</v>
+        <v>289</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -9069,43 +9114,39 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>495</v>
+        <v>291</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>496</v>
+        <v>76</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>105</v>
+        <v>225</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>497</v>
+        <v>292</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>76</v>
       </c>
@@ -9153,36 +9194,36 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>499</v>
+        <v>294</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>184</v>
+        <v>296</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>500</v>
+        <v>298</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9196,27 +9237,27 @@
         <v>85</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>227</v>
+        <v>299</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>501</v>
+        <v>300</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9240,13 +9281,13 @@
         <v>76</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>504</v>
+        <v>76</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>505</v>
+        <v>76</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>76</v>
@@ -9264,7 +9305,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>500</v>
+        <v>303</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9279,23 +9320,25 @@
         <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>506</v>
+        <v>305</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B66" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="C66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9307,26 +9350,26 @@
         <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>508</v>
+        <v>209</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>509</v>
+        <v>308</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>510</v>
+        <v>244</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>511</v>
+        <v>246</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>76</v>
@@ -9336,7 +9379,7 @@
         <v>76</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>76</v>
@@ -9375,38 +9418,40 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>507</v>
+        <v>242</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>512</v>
+        <v>249</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>513</v>
+        <v>250</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="C67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9415,29 +9460,29 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J67" t="s" s="2">
-        <v>313</v>
+        <v>209</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>515</v>
+        <v>311</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>516</v>
+        <v>244</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>517</v>
+        <v>246</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -9447,7 +9492,7 @@
         <v>76</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>76</v>
@@ -9486,7 +9531,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>514</v>
+        <v>242</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9495,27 +9540,27 @@
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>518</v>
+        <v>249</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>519</v>
+        <v>250</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>520</v>
+        <v>313</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9523,40 +9568,46 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>314</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>99</v>
+        <v>315</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="Q68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>76</v>
@@ -9595,7 +9646,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>101</v>
+        <v>313</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9607,58 +9658,60 @@
         <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>76</v>
+        <v>321</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>102</v>
+        <v>322</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>521</v>
+        <v>325</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>106</v>
+        <v>326</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>107</v>
+        <v>327</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9682,31 +9735,29 @@
         <v>76</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>112</v>
+        <v>325</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9718,58 +9769,60 @@
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AL69" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AM69" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>326</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>76</v>
       </c>
@@ -9817,40 +9870,38 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>112</v>
+        <v>334</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>76</v>
+        <v>339</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>76</v>
+        <v>341</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9862,7 +9913,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -9871,16 +9922,20 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>330</v>
+        <v>87</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9928,7 +9983,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>112</v>
+        <v>342</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9940,13 +9995,13 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
@@ -9957,7 +10012,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>522</v>
+        <v>347</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9968,7 +10023,7 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>86</v>
@@ -9977,19 +10032,23 @@
         <v>76</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>161</v>
+        <v>348</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>76</v>
       </c>
@@ -10013,13 +10072,13 @@
         <v>76</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>76</v>
@@ -10037,36 +10096,36 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>97</v>
+        <v>354</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>523</v>
+        <v>358</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10080,29 +10139,25 @@
         <v>85</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>344</v>
+        <v>99</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>76</v>
       </c>
@@ -10150,7 +10205,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>348</v>
+        <v>101</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10162,60 +10217,58 @@
         <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>349</v>
+        <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>350</v>
+        <v>102</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>524</v>
+        <v>359</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>352</v>
+        <v>106</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>353</v>
+        <v>107</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>76</v>
       </c>
@@ -10239,52 +10292,52 @@
         <v>76</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>358</v>
+        <v>112</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>360</v>
+        <v>102</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10292,9 +10345,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="C75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10303,7 +10358,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>76</v>
@@ -10312,20 +10367,18 @@
         <v>76</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K75" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>366</v>
-      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>76</v>
@@ -10374,25 +10427,25 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>367</v>
+        <v>112</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -10403,9 +10456,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="B76" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="C76" t="s" s="2">
         <v>76</v>
       </c>
@@ -10414,7 +10469,7 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>76</v>
@@ -10423,16 +10478,16 @@
         <v>76</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>256</v>
+        <v>365</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10483,36 +10538,36 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>371</v>
+        <v>112</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>527</v>
+        <v>368</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10526,27 +10581,25 @@
         <v>85</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>374</v>
+        <v>161</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>528</v>
+        <v>369</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>529</v>
+        <v>370</v>
       </c>
       <c r="M77" s="2"/>
-      <c r="N77" t="s" s="2">
-        <v>530</v>
-      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>76</v>
       </c>
@@ -10570,13 +10623,13 @@
         <v>76</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>76</v>
+        <v>371</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>76</v>
+        <v>372</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10594,7 +10647,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>527</v>
+        <v>373</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10603,19 +10656,19 @@
         <v>85</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>531</v>
+        <v>375</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>532</v>
+        <v>376</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>76</v>
+        <v>377</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -10623,7 +10676,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>533</v>
+        <v>378</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10634,7 +10687,7 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>86</v>
@@ -10643,20 +10696,22 @@
         <v>76</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>534</v>
+        <v>87</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>535</v>
+        <v>379</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="N78" t="s" s="2">
-        <v>537</v>
+        <v>382</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -10705,13 +10760,13 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>533</v>
+        <v>383</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -10720,20 +10775,4014 @@
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>76</v>
+        <v>384</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AL78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AK80" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM114" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM78">
+  <autoFilter ref="A1:AM114">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10743,7 +14792,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI77">
+  <conditionalFormatting sqref="A2:AI113">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirAttest-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T21:32:28-05:00</t>
+    <t>2022-04-24T12:38:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T12:38:40-05:00</t>
+    <t>2022-04-25T03:17:22-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T03:17:22-05:00</t>
+    <t>2022-04-25T04:33:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T04:33:18-05:00</t>
+    <t>2022-04-25T04:38:22-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T04:38:22-05:00</t>
+    <t>2022-05-01T20:03:30-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T20:03:30-05:00</t>
+    <t>2022-05-01T20:29:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T20:29:13-05:00</t>
+    <t>2022-05-04T12:20:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T12:20:47-05:00</t>
+    <t>2022-06-03T13:24:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T13:24:40-05:00</t>
+    <t>2022-06-15T12:17:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T12:17:27-04:00</t>
+    <t>2022-07-10T21:26:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T21:26:18-05:00</t>
+    <t>2022-07-15T12:22:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>An organization is a formal or informal grouping of people or organizations with a common purpose, such as a company, institution, corporation, community group, or healthcare practice.
+    <t>An organization is a formal or informal grouping of people or organizations with a common purpose, such as a company, institution, corporation, community group, or healthcare practice.
 Guidance:   When the contact is a department name, rather than a human (e.g., patient help line), include a blank family and given name, and provide the department name in contact.name.text</t>
   </si>
   <si>
@@ -2124,45 +2124,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.48046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.9609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.14453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.1796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.50390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="103.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="210.3203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="102.75390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="211.14453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-NatlDirAttest-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T12:22:10-04:00</t>
+    <t>2022-07-15T15:24:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
